--- a/Output/April/productivity_TL_valid/productivity_TL_2022-04-07_valid.xlsx
+++ b/Output/April/productivity_TL_valid/productivity_TL_2022-04-07_valid.xlsx
@@ -1008,13 +1008,13 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T7">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="U7">
-        <v>0.2666666666666667</v>
+        <v>0.2619047619047619</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T8">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="U8">
-        <v>0.2432432432432433</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1598,13 +1598,13 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T17">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="U17">
-        <v>0.1</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1837,10 +1837,10 @@
         <v>3</v>
       </c>
       <c r="T21">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="U21">
-        <v>0.1</v>
+        <v>0.06818181818181818</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2279,13 +2279,13 @@
         <v>8.333333333333334</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="H3">
-        <v>0.1791044776119403</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2409,13 +2409,13 @@
         <v>6.833333333333333</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="H8">
-        <v>0.1833333333333333</v>
+        <v>0.1627906976744186</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2652,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1791044776119403</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2722,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.1833333333333333</v>
+        <v>0.1627906976744186</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2881,7 +2881,7 @@
         <v>59</v>
       </c>
       <c r="D3">
-        <v>0.1791044776119403</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2966,7 +2966,7 @@
         <v>59</v>
       </c>
       <c r="D8">
-        <v>0.1833333333333333</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="E8">
         <v>1</v>
